--- a/PhD/Exacto/2024/2024-201/Data Sheet_2024-201.xlsx
+++ b/PhD/Exacto/2024/2024-201/Data Sheet_2024-201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/Exacto/2024/2024-201/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_F25DC773A252ABDACC1048B59958404C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9945EAD4-4D0A-4D1C-8DED-9A2ABE59FCED}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{AE062484-4D36-424E-9152-D26543C5A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B3ECDF-A693-4D98-9BC7-34F1C8A4FC52}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,10 +235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,7 +503,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +514,8 @@
     <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
@@ -584,9 +581,15 @@
       <c r="H2" s="4">
         <v>0.01</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="4">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2.6280000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -613,9 +616,15 @@
       <c r="H3" s="4">
         <v>0.01</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="4">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4.8479999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -642,9 +651,15 @@
       <c r="H4" s="4">
         <v>0.01</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.4820000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -671,9 +686,15 @@
       <c r="H5" s="4">
         <v>0.01</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="4">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.768</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -700,9 +721,15 @@
       <c r="H6" s="4">
         <v>0.01</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="4">
+        <v>60</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3.7429999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -729,9 +756,15 @@
       <c r="H7" s="4">
         <v>0.01</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.28799999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -758,9 +791,15 @@
       <c r="H8" s="4">
         <v>0.99</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -787,9 +826,15 @@
       <c r="H9" s="4">
         <v>0.99</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -816,9 +861,15 @@
       <c r="H10" s="4">
         <v>0.99</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="I10" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -845,9 +896,15 @@
       <c r="H11" s="4">
         <v>0.95</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -874,9 +931,15 @@
       <c r="H12" s="4">
         <v>0.99</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -903,9 +966,15 @@
       <c r="H13" s="4">
         <v>0.99</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -932,9 +1001,15 @@
       <c r="H14" s="4">
         <v>0.99</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="I14" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -961,9 +1036,15 @@
       <c r="H15" s="4">
         <v>0.99</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -990,9 +1071,15 @@
       <c r="H16" s="4">
         <v>0.99</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="I16" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1019,9 +1106,15 @@
       <c r="H17" s="4">
         <v>0.95</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="I17" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1048,9 +1141,15 @@
       <c r="H18" s="4">
         <v>0.95</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="I18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1077,9 +1176,15 @@
       <c r="H19" s="4">
         <v>0.9</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="I19" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1106,9 +1211,15 @@
       <c r="H20" s="4">
         <v>0.99</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="I20" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1135,9 +1246,15 @@
       <c r="H21" s="4">
         <v>0.99</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="I21" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1164,9 +1281,15 @@
       <c r="H22" s="4">
         <v>0.9</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="I22" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1193,9 +1316,15 @@
       <c r="H23" s="4">
         <v>0.99</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="I23" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1222,9 +1351,15 @@
       <c r="H24" s="4">
         <v>0.7</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="I24" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="4">
+        <v>8</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.008</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1251,9 +1386,15 @@
       <c r="H25" s="4">
         <v>0.9</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="I25" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1280,9 +1421,15 @@
       <c r="H26" s="4">
         <v>0.99</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="I26" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1309,9 +1456,15 @@
       <c r="H27" s="4">
         <v>0.99</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="I27" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1338,9 +1491,15 @@
       <c r="H28" s="4">
         <v>0.95</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="I28" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1367,9 +1526,15 @@
       <c r="H29" s="4">
         <v>0.99</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="I29" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1396,9 +1561,15 @@
       <c r="H30" s="4">
         <v>0.99</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="I30" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1425,9 +1596,15 @@
       <c r="H31" s="4">
         <v>0.99</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="I31" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1454,9 +1631,15 @@
       <c r="H32" s="4">
         <v>0.95</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="I32" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1483,9 +1666,15 @@
       <c r="H33" s="4">
         <v>0.99</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="I33" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1512,9 +1701,15 @@
       <c r="H34" s="4">
         <v>0.99</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="I34" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1541,9 +1736,15 @@
       <c r="H35" s="4">
         <v>0.99</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="I35" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1570,9 +1771,15 @@
       <c r="H36" s="4">
         <v>0.85</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="I36" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="4">
+        <v>8</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.372</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -1599,9 +1806,15 @@
       <c r="H37" s="4">
         <v>0.95</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="I37" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1628,9 +1841,15 @@
       <c r="H38" s="4">
         <v>0.99</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="I38" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -1657,9 +1876,15 @@
       <c r="H39" s="4">
         <v>0.99</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="I39" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1686,9 +1911,15 @@
       <c r="H40" s="4">
         <v>0.9</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="I40" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.11899999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -1715,9 +1946,15 @@
       <c r="H41" s="4">
         <v>0.99</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="I41" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -1744,9 +1981,15 @@
       <c r="H42" s="4">
         <v>0.99</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="I42" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -1773,9 +2016,15 @@
       <c r="H43" s="4">
         <v>0.99</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="I43" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -1802,9 +2051,15 @@
       <c r="H44" s="4">
         <v>0.99</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="I44" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -1831,9 +2086,15 @@
       <c r="H45" s="4">
         <v>0.99</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="I45" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -1860,9 +2121,15 @@
       <c r="H46" s="4">
         <v>0.99</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="I46" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -1889,9 +2156,15 @@
       <c r="H47" s="4">
         <v>0.99</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="I47" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -1918,9 +2191,15 @@
       <c r="H48" s="4">
         <v>0.99</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="I48" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -1947,9 +2226,15 @@
       <c r="H49" s="4">
         <v>0.99</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="I49" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -1976,9 +2261,15 @@
       <c r="H50" s="4">
         <v>0.99</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="I50" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -2005,9 +2296,15 @@
       <c r="H51" s="4">
         <v>0.85</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="I51" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="4">
+        <v>3</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.42199999999999999</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -2034,9 +2331,15 @@
       <c r="H52" s="4">
         <v>0.9</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="I52" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.22500000000000001</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -2063,9 +2366,15 @@
       <c r="H53" s="4">
         <v>0.92</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="I53" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -2092,9 +2401,15 @@
       <c r="H54" s="4">
         <v>0.8</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="I54" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J54" s="4">
+        <v>6</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -2121,9 +2436,15 @@
       <c r="H55" s="4">
         <v>0.85</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="I55" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.57199999999999995</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -2150,9 +2471,15 @@
       <c r="H56" s="4">
         <v>0.99</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="I56" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -2179,9 +2506,15 @@
       <c r="H57" s="4">
         <v>0.99</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="I57" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2208,9 +2541,15 @@
       <c r="H58" s="4">
         <v>0.85</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="I58" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J58" s="4">
+        <v>3</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.371</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -2237,9 +2576,15 @@
       <c r="H59" s="4">
         <v>0.99</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="I59" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -2266,9 +2611,15 @@
       <c r="H60" s="4">
         <v>0.99</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="I60" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -2295,9 +2646,15 @@
       <c r="H61" s="4">
         <v>0.99</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="I61" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -2324,9 +2681,15 @@
       <c r="H62" s="4">
         <v>0.99</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="I62" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -2353,9 +2716,15 @@
       <c r="H63" s="4">
         <v>0.99</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="I63" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2382,9 +2751,15 @@
       <c r="H64" s="4">
         <v>0.99</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="I64" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -2411,9 +2786,15 @@
       <c r="H65" s="4">
         <v>0.99</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="I65" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -2440,9 +2821,15 @@
       <c r="H66" s="4">
         <v>0.99</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="I66" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -2469,9 +2856,15 @@
       <c r="H67" s="4">
         <v>0.99</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="I67" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -2498,9 +2891,15 @@
       <c r="H68" s="4">
         <v>0.99</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="I68" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -2527,9 +2926,15 @@
       <c r="H69" s="4">
         <v>0.99</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="I69" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -2556,9 +2961,15 @@
       <c r="H70" s="4">
         <v>0.99</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="I70" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -2585,9 +2996,15 @@
       <c r="H71" s="4">
         <v>0.99</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
+      <c r="I71" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -2614,9 +3031,15 @@
       <c r="H72" s="4">
         <v>0.99</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="I72" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -2643,9 +3066,15 @@
       <c r="H73" s="4">
         <v>0.99</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="I73" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
@@ -2672,9 +3101,15 @@
       <c r="H74" s="4">
         <v>0.95</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
+      <c r="I74" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -2701,9 +3136,15 @@
       <c r="H75" s="4">
         <v>0.9</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
+      <c r="I75" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
@@ -2730,9 +3171,15 @@
       <c r="H76" s="4">
         <v>0.95</v>
       </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
+      <c r="I76" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
@@ -2759,9 +3206,15 @@
       <c r="H77" s="4">
         <v>0.99</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
+      <c r="I77" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -2788,9 +3241,15 @@
       <c r="H78" s="4">
         <v>0.65</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="I78" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J78" s="4">
+        <v>13</v>
+      </c>
+      <c r="K78" s="4">
+        <v>13.96</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -2817,9 +3276,15 @@
       <c r="H79" s="4">
         <v>0.99</v>
       </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="I79" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -2846,9 +3311,15 @@
       <c r="H80" s="4">
         <v>0.9</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="I80" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0.247</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -2875,9 +3346,15 @@
       <c r="H81" s="4">
         <v>0.99</v>
       </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="I81" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -2904,9 +3381,15 @@
       <c r="H82" s="4">
         <v>0.99</v>
       </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
+      <c r="I82" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
@@ -2933,9 +3416,15 @@
       <c r="H83" s="4">
         <v>0.99</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
+      <c r="I83" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -2962,9 +3451,15 @@
       <c r="H84" s="4">
         <v>0.99</v>
       </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="I84" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -2991,9 +3486,15 @@
       <c r="H85" s="4">
         <v>0.95</v>
       </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="I85" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -3020,9 +3521,15 @@
       <c r="H86" s="4">
         <v>0.95</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="I86" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -3049,9 +3556,15 @@
       <c r="H87" s="4">
         <v>0.99</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
+      <c r="I87" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -3078,9 +3591,15 @@
       <c r="H88" s="4">
         <v>0.99</v>
       </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
+      <c r="I88" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
@@ -3107,9 +3626,15 @@
       <c r="H89" s="4">
         <v>0.99</v>
       </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
+      <c r="I89" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
@@ -3136,9 +3661,15 @@
       <c r="H90" s="4">
         <v>0.99</v>
       </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
+      <c r="I90" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -3165,9 +3696,15 @@
       <c r="H91" s="4">
         <v>0.99</v>
       </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+      <c r="I91" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
@@ -3194,9 +3731,15 @@
       <c r="H92" s="4">
         <v>0.99</v>
       </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+      <c r="I92" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
@@ -3223,9 +3766,15 @@
       <c r="H93" s="4">
         <v>0.99</v>
       </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="I93" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
@@ -3252,9 +3801,15 @@
       <c r="H94" s="4">
         <v>0.99</v>
       </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+      <c r="I94" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
@@ -3281,9 +3836,15 @@
       <c r="H95" s="4">
         <v>0.99</v>
       </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="I95" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -3310,9 +3871,15 @@
       <c r="H96" s="4">
         <v>0.99</v>
       </c>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
+      <c r="I96" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
@@ -3339,9 +3906,15 @@
       <c r="H97" s="4">
         <v>0.99</v>
       </c>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+      <c r="I97" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
@@ -3368,9 +3941,15 @@
       <c r="H98" s="4">
         <v>0.99</v>
       </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="I98" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
@@ -3397,9 +3976,15 @@
       <c r="H99" s="4">
         <v>0.99</v>
       </c>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
+      <c r="I99" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
@@ -3426,9 +4011,15 @@
       <c r="H100" s="4">
         <v>0.99</v>
       </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+      <c r="I100" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
@@ -3455,9 +4046,15 @@
       <c r="H101" s="4">
         <v>0.99</v>
       </c>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
+      <c r="I101" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
@@ -3484,9 +4081,15 @@
       <c r="H102" s="4">
         <v>0.99</v>
       </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
+      <c r="I102" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
@@ -3513,9 +4116,15 @@
       <c r="H103" s="4">
         <v>0.99</v>
       </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
+      <c r="I103" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -3529,7 +4138,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,7 +4181,9 @@
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <v>45353</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -3586,19 +4197,25 @@
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>45377</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6">
+        <v>45377</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <v>45384</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PhD/Exacto/2024/2024-201/Data Sheet_2024-201.xlsx
+++ b/PhD/Exacto/2024/2024-201/Data Sheet_2024-201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/Exacto/2024/2024-201/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{AE062484-4D36-424E-9152-D26543C5A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B3ECDF-A693-4D98-9BC7-34F1C8A4FC52}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{AE062484-4D36-424E-9152-D26543C5A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35DDA2FF-174D-4373-A29B-48CD2691FA74}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st run'!$A$1:$K$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st run'!$A$1:$M$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -143,6 +143,12 @@
   <si>
     <t>dose</t>
   </si>
+  <si>
+    <t>countred</t>
+  </si>
+  <si>
+    <t>biored</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +225,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,16 +521,19 @@
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +567,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -590,8 +608,10 @@
       <c r="K2" s="4">
         <v>2.6280000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -625,8 +645,10 @@
       <c r="K3" s="4">
         <v>4.8479999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -660,8 +682,10 @@
       <c r="K4" s="4">
         <v>3.4820000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -695,8 +719,10 @@
       <c r="K5" s="4">
         <v>1.768</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -730,8 +756,10 @@
       <c r="K6" s="4">
         <v>3.7429999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -765,8 +793,10 @@
       <c r="K7" s="4">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -800,8 +830,14 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -835,8 +871,14 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -870,8 +912,14 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -905,8 +953,14 @@
       <c r="K11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -940,8 +994,14 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -975,8 +1035,14 @@
       <c r="K13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1010,8 +1076,14 @@
       <c r="K14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1045,8 +1117,14 @@
       <c r="K15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1080,8 +1158,14 @@
       <c r="K16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1115,8 +1199,14 @@
       <c r="K17" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.99856776272602499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1150,8 +1240,14 @@
       <c r="K18" s="4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.99641940681506236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1185,8 +1281,14 @@
       <c r="K19" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.97565196634242402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1220,8 +1322,14 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1255,8 +1363,14 @@
       <c r="K21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1290,8 +1404,14 @@
       <c r="K22" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.97242943247598024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1325,8 +1445,14 @@
       <c r="K23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1360,8 +1486,14 @@
       <c r="K24" s="4">
         <v>1.008</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="4">
+        <v>0.64444444444444438</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.63907620695828615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1395,8 +1527,14 @@
       <c r="K25" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.98818404248970582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1430,8 +1568,14 @@
       <c r="K26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1465,8 +1609,14 @@
       <c r="K27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1500,8 +1650,14 @@
       <c r="K28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1535,8 +1691,14 @@
       <c r="K29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1570,8 +1732,14 @@
       <c r="K30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1605,8 +1773,14 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1640,8 +1814,14 @@
       <c r="K32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1675,8 +1855,14 @@
       <c r="K33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1710,8 +1896,14 @@
       <c r="K34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1745,8 +1937,14 @@
       <c r="K35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1780,8 +1978,14 @@
       <c r="K36" s="4">
         <v>0.372</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="4">
+        <v>0.64444444444444438</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.86680193352031987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1815,8 +2019,14 @@
       <c r="K37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1850,8 +2060,14 @@
       <c r="K38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1885,8 +2101,14 @@
       <c r="K39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1920,8 +2142,14 @@
       <c r="K40" s="4">
         <v>0.11899999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="4">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.95739094109924217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1955,8 +2183,14 @@
       <c r="K41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1990,8 +2224,14 @@
       <c r="K42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2025,8 +2265,14 @@
       <c r="K43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2060,8 +2306,14 @@
       <c r="K44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2095,8 +2347,14 @@
       <c r="K45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2130,8 +2388,14 @@
       <c r="K46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2165,8 +2429,14 @@
       <c r="K47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2200,8 +2470,14 @@
       <c r="K48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2235,8 +2511,14 @@
       <c r="K49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2270,8 +2552,14 @@
       <c r="K50" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2305,8 +2593,14 @@
       <c r="K51" s="4">
         <v>0.42199999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0.84889896759563177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2340,8 +2634,14 @@
       <c r="K52" s="4">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.91943665333890312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2375,8 +2675,14 @@
       <c r="K53" s="4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0.99641940681506236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2410,8 +2716,14 @@
       <c r="K54" s="4">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="4">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0.69206898609536316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2445,8 +2757,14 @@
       <c r="K55" s="4">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="4">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.79519006982156715</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2480,8 +2798,14 @@
       <c r="K56" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2515,8 +2839,14 @@
       <c r="K57" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2550,8 +2880,14 @@
       <c r="K58" s="4">
         <v>0.371</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0.86715999283881362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2585,8 +2921,14 @@
       <c r="K59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2620,8 +2962,14 @@
       <c r="K60" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2655,8 +3003,14 @@
       <c r="K61" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2690,8 +3044,14 @@
       <c r="K62" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0.99820970340753123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2725,8 +3085,14 @@
       <c r="K63" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2760,8 +3126,14 @@
       <c r="K64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2795,8 +3167,14 @@
       <c r="K65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2830,8 +3208,14 @@
       <c r="K66" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2865,8 +3249,14 @@
       <c r="K67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2900,8 +3290,14 @@
       <c r="K68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2935,8 +3331,14 @@
       <c r="K69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2970,8 +3372,14 @@
       <c r="K70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3005,8 +3413,14 @@
       <c r="K71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3040,8 +3454,14 @@
       <c r="K72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3075,8 +3495,14 @@
       <c r="K73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -3110,8 +3536,14 @@
       <c r="K74" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0.99820970340753123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3145,8 +3577,14 @@
       <c r="K75" s="4">
         <v>0.26800000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0.9040401026436713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3180,8 +3618,14 @@
       <c r="K76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M76" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3215,8 +3659,14 @@
       <c r="K77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -3250,8 +3700,14 @@
       <c r="K78" s="4">
         <v>13.96</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="4">
+        <v>0.42222222222222228</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3285,8 +3741,14 @@
       <c r="K79" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3320,8 +3782,14 @@
       <c r="K80" s="4">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0.91155934833204033</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3355,8 +3823,14 @@
       <c r="K81" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -3390,8 +3864,14 @@
       <c r="K82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3425,8 +3905,14 @@
       <c r="K83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -3460,8 +3946,14 @@
       <c r="K84" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -3495,8 +3987,14 @@
       <c r="K85" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -3530,8 +4028,14 @@
       <c r="K86" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3565,8 +4069,14 @@
       <c r="K87" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3600,8 +4110,14 @@
       <c r="K88" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3635,8 +4151,14 @@
       <c r="K89" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -3670,8 +4192,14 @@
       <c r="K90" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M90" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3705,8 +4233,14 @@
       <c r="K91" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M91" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -3740,8 +4274,14 @@
       <c r="K92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M92" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -3775,8 +4315,14 @@
       <c r="K93" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -3810,8 +4356,14 @@
       <c r="K94" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -3845,8 +4397,14 @@
       <c r="K95" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -3880,8 +4438,14 @@
       <c r="K96" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3915,8 +4479,14 @@
       <c r="K97" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3950,8 +4520,14 @@
       <c r="K98" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3985,8 +4561,14 @@
       <c r="K99" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -4020,8 +4602,14 @@
       <c r="K100" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="4">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0.99713552545204986</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -4055,8 +4643,14 @@
       <c r="K101" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -4090,8 +4684,14 @@
       <c r="K102" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -4125,9 +4725,15 @@
       <c r="K103" s="4">
         <v>0</v>
       </c>
+      <c r="L103" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0.99</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
